--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://medigree.github.io/r5demo/ValueSet/FoodAllergyVS</t>
+    <t>https://costateixeira.github.io/r4bdemo/ValueSet/FoodAllergyVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T09:52:26+00:00</t>
+    <t>2022-11-20T10:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-FoodAllergyVS.xlsx
+++ b/ValueSet-FoodAllergyVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T10:01:09+00:00</t>
+    <t>2022-11-20T10:08:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
